--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/1.NhanBH/NBH221105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/1.NhanBH/NBH221105_AnhTuanBG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -82,6 +82,39 @@
   </si>
   <si>
     <t>VNSH02</t>
+  </si>
+  <si>
+    <t>WP21120135S01361/0032001F8C</t>
+  </si>
+  <si>
+    <t>Full phụ kiện</t>
+  </si>
+  <si>
+    <t>WP21120135S00070/0032002DA6</t>
+  </si>
+  <si>
+    <t>Dây kết nối, đầu hoa thị</t>
+  </si>
+  <si>
+    <t>WP21120135S02927/00320028BF</t>
+  </si>
+  <si>
+    <t>WP21120135S01294/0032002B95</t>
+  </si>
+  <si>
+    <t>WP21120135S02906/0032002955</t>
+  </si>
+  <si>
+    <t>WP21120135S00555/00320024D4</t>
+  </si>
+  <si>
+    <t>Dây kết nối, đế chân</t>
+  </si>
+  <si>
+    <t>Dây kết nối</t>
+  </si>
+  <si>
+    <t>WP21120135S02871/003200263A</t>
   </si>
 </sst>
 </file>
@@ -496,6 +529,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -537,33 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,18 +951,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -938,92 +971,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1052,9 +1085,15 @@
       <c r="B11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="C11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,9 +1103,15 @@
       <c r="B12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,9 +1121,15 @@
       <c r="B13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,9 +1139,15 @@
       <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,9 +1157,15 @@
       <c r="B15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1112,9 +1175,15 @@
       <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,186 +1193,132 @@
       <c r="B17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="C17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>8</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>10</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>12</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>13</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="41"/>
-    </row>
-    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="27"/>
-    </row>
+      <c r="E25" s="43"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+    <row r="38" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
